--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/61_Nevşehir_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/61_Nevşehir_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{747A3AEC-46C7-45EE-82B6-EAC30EF45AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DBF6E7A-D4F0-48E5-AFBB-083FE3295D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A755D28E-B846-4C47-AF40-003198926652}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08C842DE-830A-4577-9B4C-10F6784F76A3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{08C7F742-E006-4025-A74D-8EC4A9960E6D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{8357CCC7-220D-4A96-9920-C0DA055BC20F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{9B25FFA7-B668-4971-A6D5-C3AAAF0DF8AB}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{5E5D5C79-B0B5-44A8-8967-F47EC0FE00B6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{18694B09-1AD1-4493-AEDA-9E52A174D445}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{2151610E-1B85-49CA-B8EC-454EB94B60DA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{4373D04C-0F9A-4FB4-A304-27511E60A89B}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{8A79CDB6-3569-42EC-AB91-513F037612AC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A2FE50-3A73-4B83-8A64-EF75CF8624B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE84C0D-91E3-449A-948C-DAC230F1BE60}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2455,18 +2455,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{096538CC-B369-4E88-8786-5B225ED6A5CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{84E8AA85-E266-4520-A229-EF9CBE21AC43}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4640B89E-B0BB-4DA2-B0FD-4217BAFA6A1D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C11B10A8-C7C9-4A49-9C95-21B0F21DDDA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9DBEAE0C-B232-4D8D-9F26-9662BF2008FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8A8E8812-8F97-4E14-A634-1497294A504F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6DE2E744-F3FB-4A2B-BB62-CB4D8207508A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{013EE648-3F78-4A1E-BF43-7EFE23CAEBB6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BF7BACD1-739E-49EF-82A1-D102A474A6BA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9AC8CA6E-2902-4578-8E30-8FDBF09068B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{26D7FAAC-1B1A-4F27-85EB-64F561E1FADE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D592AB6B-4085-4F8E-9074-46E53EB46A74}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B0CCEA96-BB2E-43EA-93FB-EF48B531D03F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{924D16E0-3712-4C1E-96D4-1350273A5E49}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5DAB539C-D5DC-4C7B-B6CF-5100D205F4CA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{37941B49-3183-4686-9293-B343BAE9BFD7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{222994EF-EFBC-4BF6-AD66-FFBED2C69B5E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CD10BFB7-C8C6-4E07-91DC-7B951ACF57D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3598E219-F525-40B5-B86C-1DA655DFA782}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6421510A-CCE3-4AB7-893E-35CDB6F8493B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D03E9699-0AFD-495D-8615-C71F361987D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{07492FAC-46CF-4B51-9636-D862D309C2BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9D340C97-2340-486E-A23C-CA20E825DE22}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{112179D2-D347-4863-BDEA-45D2A3E5C99C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2479,7 +2479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8339B4DC-7B23-410A-83A9-1ED18FFE6FDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6417986A-1330-4C33-ADE8-FE6ABF3A0C1C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3690,18 +3690,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A589D1B8-9FEF-4CF3-BB61-5B53061C384F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6B041D1E-0772-4A12-977B-B3470B343260}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{045BDDB1-3F58-42AE-B064-C79E67C6B7EC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B1503D16-729F-4190-BBCB-2D1824CEE771}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3B9F7EBE-AE9E-4981-8971-CB26E25DD679}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{15BE3A11-9888-4474-9EFF-BDE3FBC07F5C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{61507165-980B-4385-B0D2-4113F7AC6565}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{43E124D6-2CC3-4FD5-BE4A-0F798BE60C17}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AE4DDCC4-597E-4DDD-B8F4-7390B0F132DB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DB1C4E30-3981-4C60-9F68-84836FE317FF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ACEAA14F-F56E-4977-BABA-5A1D3720E6B2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3B4194FF-CB84-4FBA-9A00-52662AA9C1D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E05D0FD8-A55E-46B5-865F-292DF55312B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D620CA5C-5B23-43A5-98DF-7235921C1A01}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{37D3B55F-BB11-4E4B-A926-11C1A87B236D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1FBF7208-F1B9-4AAD-85C6-8884C2EF42EC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{977CF03E-734A-4948-B764-49D7822406A7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6194E773-9F2D-43B7-979A-B0264E0CFD52}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2D5ED5D1-4EBB-4BED-9AE1-164D34D2FB6A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{637FCFEE-932C-44CD-BD46-C4D9708C69E6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{76F0E58F-2B1D-47D9-9C02-43D7544F2668}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{457D2C19-D4F8-4E42-A3C2-6CAE5F10D999}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3E39B309-BD61-485A-96D4-E276F6EC632A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{47E57496-D735-4911-B5B3-851AADB14201}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3714,7 +3714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDDC576-53AF-4ADC-9995-608FE3D010AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D09903-68FD-4A9E-B96A-44A176F9D4CA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4925,18 +4925,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CA4429B1-E551-4537-B0B8-793A95D8318B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A385399E-2F0D-4CB6-988C-1CCA5BE40BC0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{18EA58BA-687C-4B88-9157-883BF02664C9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A61CF00A-05D3-4806-88AC-3E4CC98D105C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DDDFBC3C-5F92-42D0-978C-EC46632B50DB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{00CC850C-366E-453C-87DC-C4FB10F3162B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{124A2723-848C-41F3-8616-A568A02A421B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{90FAFCD8-FFE1-41DE-A410-E512B9F9C138}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B13425EB-4350-40C3-BEA8-2EB352CCBFF5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0A18985A-979E-4DA6-A384-C2F539974C8B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A1DF0438-1B04-4FED-A002-7BA52676F6C4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5BE6EE0C-AA0E-4948-82C6-ABB614A51439}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7258E28B-BDA6-4373-99F7-116DA8AAA028}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4735586C-4562-4318-8376-2CBEAF43E9AB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{623DBE62-8E5E-41C4-997E-78F783FC720F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E6FC0A04-FDDC-490B-BE00-C1318B0A6C63}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{58252AB2-E2F0-47AF-A027-A46C9B92B4BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0E48C8B7-5876-440F-BBD1-2A9FF4A81612}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1F1DE928-F69E-4553-8547-AD0C70C55520}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{71EFCEB9-CCAB-456A-B2CE-9B4BDBD1B3F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9CED12DF-AC47-4D9A-A0F8-958C70F9C711}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8D3AC1F6-1D48-4B79-9A59-43EB406F8CC1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4AA93108-9A33-46C4-B159-4A9E1CF7D179}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{352E2CCD-40A3-4E8B-8861-53076572BD07}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4949,7 +4949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBEC773-9821-4708-9560-054FF057A41D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564F68EC-DE00-4C1F-B07C-D6A9C31B77E0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6134,18 +6134,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EC109CA1-B7CA-4ECF-AD39-8486A368ACDA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{22BEFE1A-828B-4E91-9805-1D735D6377EF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5EE55937-9971-4F04-B2E5-E74B2BD7CE46}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A28DB417-6C65-4F37-A632-81D9638742A8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{48E80883-190B-41AD-B481-0A4DFBF50E3B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3E97E239-9EA6-4ABC-BAF4-4F9AAF0C827B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9396490E-2E55-4285-849C-C8BECA285CFE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{13BAC756-E9F8-491E-AF1D-7C67D8238C8E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0D466FF2-7DF9-4B81-AFEB-89ED9CA7D59E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{22CF6C50-2E1E-4CDE-BAF3-11337DEBADE4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{34815E3B-2473-4204-8554-39C7DB496008}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CAFB6120-E9F8-47B1-86B7-963661E223B9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{01819D80-54EE-4606-8F55-D7FC5FEE6B79}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6C8914A6-92BE-4CCE-A7E2-696649010F8A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{970D0B2A-9EC9-4A8B-8705-984052F6842E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{665728AE-ED7D-4688-9B4B-D4A06F1F83C9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{46FB51B0-6B74-44E9-9361-E44C8BD555FE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B0665E52-B123-4C02-980A-DDD4D51B2BF9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{92422E88-55B7-484A-BBC9-0B0650F828B3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E2E7FA42-974C-4EE4-BF75-2675F3A515E8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7417EDF5-FB2C-4760-B14D-833E22273A1C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5B52FCF2-1719-4D03-9E61-7C0E0E8E9950}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{50439D64-4684-43FB-846A-BBD4A93423D4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9A6DCC69-4A1F-44F4-BD26-AD989E7FFE32}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6158,7 +6158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19D8BE1-14DA-4F6E-892B-820481CC1EED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C16D5DA-4F27-47F3-8D1A-F2039D5947FA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7377,18 +7377,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B11937AC-D920-4195-8571-5CBC8995B665}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{58E79C7C-66A1-48BC-9B54-427410EF9165}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7D1F7328-67AC-46D1-9008-D0FAD9E8601E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3B7F3FB1-93EC-4F0B-86FB-EB44A11E38B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{962462D6-BB17-4A3B-BC02-13CEC65C6510}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{097DE1F9-6F9F-428B-A33D-FF2DAD4ADC77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3F8F8DA6-23F4-402C-8B96-E605363EDCB2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B548AC48-ECF9-43C9-884D-4966C9290A84}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5210169D-4C63-4E30-8904-0ABCD7C7C840}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A44402B6-0D7A-43EA-9322-06E4E95CD90D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C9BB5449-8526-4570-ACA4-0F0C9AF456DB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{72D5409B-838D-49B4-96F5-3EE83178032A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{613713B0-D161-491C-904A-A7AD8B74FBB5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BAD03C07-7E85-4BA7-A165-FAF230563C4A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{59C3A2EB-C1ED-4F25-AF9C-545BDD3E924C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5C8C29AC-E923-4B48-AC23-BC50A821DA3F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{03FC193B-40F5-426B-9B11-10FFB97A5489}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{39C51A45-344B-45B1-AB9A-D9D70145B00F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BF6356ED-B997-4F4B-99DC-5EF6E9ABDF84}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9F85C485-8889-484B-91A3-139983DCDFD5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9CB34D8C-9D83-45BC-86D1-2F81E94FB7C1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{332496F0-8B4C-4558-AF49-43D1E3EC8B1B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FEBAF718-4D8D-4DE7-A88D-675BA0289D82}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{80A08E70-28B8-4FA3-9E37-61A12B5FF978}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7401,7 +7401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31550454-148C-45CF-AE1B-159342E1E367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F486B90-435A-447C-9375-1A9A00B38C04}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8616,18 +8616,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{34CC0578-E2D8-4272-85F5-1FF695D99321}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3575153A-F685-4569-9C3B-A7CA0B47BA4C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{304D666C-41B6-45F5-AC70-C8B4FF5179B9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5EBF9072-7954-4C8C-9EC8-5A1AFB523F7D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6D1E26D8-F419-4024-900D-E30D7BE0533E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4FFF7A1A-2637-44FC-9F29-845ADAB73206}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{27FE1855-1848-4DA2-8CA9-2B79AB547CB8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E9D0E4EB-545F-4D08-A6E5-B81D217B3BEC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B21BADE2-B388-4408-AD08-FB4EE92F51B2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9A5E83FB-30E9-433C-A577-16960627FCFA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FE15FF79-158D-49A9-A3A6-CC037B34E464}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{035D547C-AA4C-4C3B-BC94-26BE04E79B17}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C45ED865-5619-44CD-8C8B-886F01438951}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C77B94B4-E3D5-49AF-B890-65FF1AA76921}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6161F0FB-FCE4-475D-8310-FA7C389FA684}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F8B47785-1A37-4570-B0D7-F58718433DEA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{951625B9-25D3-44EA-A708-D7D32170C744}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2BB337B7-EAAC-4D41-B1D3-4DD444B77FFF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9FBE4CF6-B562-4DFB-A51F-856D06DD0B8B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{399EB7F4-CEBA-4062-9831-C828897D8E4C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{742EE261-6159-47A0-94F6-9E7CBBE09BED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{78E1A41D-4D07-4955-BE17-3EF5AE5053FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{41DBEA92-21D3-4F40-8F72-82C733501356}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1B26191A-2C7A-4CA3-AC46-B315F4F3B7CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8640,7 +8640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2277FF-64AD-4554-AE88-8D4EE0142D48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B870362E-D40F-4F9C-BC9C-053CE9600F76}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9851,18 +9851,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{63035D95-C07C-48F8-8EA2-36CAD5FC62B7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7072B7AC-80A6-451B-9EFA-51053A36A67C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3E8CFCFA-C787-4CBC-A48B-296D7DCF47CB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{76287FED-2A58-443E-AF41-90D1D2F0934E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{09B4A483-5FDE-478F-9AF9-B555874EE357}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0EB6718A-A02B-4B38-9ECD-6B125D9DAFEA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8BCE459D-2301-42D6-B422-DA8014C6D80E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{61722E54-E50F-4A1B-89E2-F61A83598E98}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9C4CCAC3-2716-489C-BE09-EF88412956CF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{97CC885B-D467-490F-9322-ADADE9A0A43D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{070DC882-E842-44F6-9AA9-36505C744D2C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5864C6FE-3A3A-40C2-BCD4-CF47931851B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C25E7F0B-5572-44F8-A535-172E1514F702}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A49B7910-A90C-4D2A-A6D2-E842E14F042C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6E5EF15A-9FF6-4183-96A1-D081D3FF0EA6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AB5F5E26-0C40-4345-A435-69593766FCA8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{37BE54AA-FE79-4593-9984-59D85CDED041}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0B6F154C-A8B1-40B7-A26A-AF9CFDE6B653}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F584EAEC-00C7-49EA-8ACA-276FF1004E01}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{123C45EE-FC05-4453-A970-226D61B20E9B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8ECFF0AD-0442-4F65-B0E1-7DBAEA0DD900}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{12F76E3E-CF9A-4AEC-8A8F-5E600C6A8021}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DAF5041A-BF3C-4466-9B27-002105148FDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F97C8152-B4F0-4429-84DA-F2A88EA1C80A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9875,7 +9875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BCE93B-4984-4F33-A2F3-FD9F28456FD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4CAC2B-66AF-4E31-A543-629859EA435C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11082,18 +11082,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{53096ACF-0B39-4F9E-B166-190CE925DD24}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CDB8EABD-9F8A-405D-BD93-EB4099DC6C88}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1D7A409F-862C-4250-B126-76BEF1F1FCF1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7A43ED4B-3127-4FD4-AC34-81DCB095768D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{74DDAEA2-DDB1-4015-B572-D3C74D68397A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{07E2ACAD-3393-47CC-8A99-C74C8E64101D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3D38D164-FD97-43F3-9A83-C919B2F3D006}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{495ADCB4-2FB9-4AA4-AB84-9B4A6D45B2D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1046362F-F8E9-4BA0-B84E-018C190C8ABA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9974F7B2-3FE0-4CF3-8128-E83584B3CE4C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2E9F675C-CF81-48B0-907A-CB8066C13B08}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EFDD7189-7A75-44D9-92F6-5584474E852F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9233E942-9498-4828-9190-9AF7511A6695}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8BBD52A0-EF3C-4EA4-8E97-FB08F1F4B740}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BEEF4627-0233-4948-B42F-9471745E21E8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6E53E162-49ED-418D-8DE5-EBB786BA8CCC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B354D830-F9D6-4BE8-9210-46652325CDF4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0F540EFF-791D-4581-94D3-61A01C8072C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F43B5D48-20D8-41C3-8F42-C65350454449}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D3795711-2BCA-4444-AFB9-8D734B5A9843}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{52702832-3814-4E6A-BAD8-D3EB52753056}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5491A868-5789-4B0F-871D-6BED68B94F99}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A51CA4D0-0CF8-49EE-A76C-75BA5B32169E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{04926165-B924-4487-B964-382D4350699A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11106,7 +11106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803C9EA0-19C1-43D3-9A35-8F656B1FB724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7492B8-2AC0-4F42-A3A6-CF2141802953}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12317,18 +12317,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BA3349B8-5A5E-4378-9A98-B73B8ED02F12}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2E818485-25D1-45EE-93D9-339DD8D73A31}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C56F4AF0-5FCA-4D4D-B1B7-29EEE136848E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DFA8E063-A98D-4689-B1D9-74F1A3AEA1BF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{99A0270F-6F1D-4DA8-A95D-87562FFF5C7E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E46042A9-0EFC-4B32-869B-19694ED36B0F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1463F3C1-F95F-4393-A5C8-4D1D10D743EF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4E8B3A76-B75E-4640-972F-FD7CF4C67B17}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{18E5D3FF-9E4E-46DA-B435-91CA18630ABF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7840CAC7-C0EF-49AC-91FE-F380CA126F2C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2CC11181-AC93-4B10-A9F1-351871C9CC02}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{09AF8FB1-7266-4C08-BF95-01C4905026B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{16CDBA56-AD5E-463A-B36B-45F32CDD8D60}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{00F06755-AFB0-457C-8FE3-7BC9D5DC2C91}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C5DE541E-C0FB-4B6D-83D7-6E2CDD830204}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{51BA17A4-CA48-4330-80DA-C6E9091C70D8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{24AFAA3D-36DB-4FFA-AF15-45C981F7C7C4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7036BAF0-9715-4FA6-84F7-B5CB087EFEF2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{53C3C111-C3FA-4C11-B6CF-93567C53247D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{904F72B6-F627-4771-BC2C-C4103EE664B8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E6B5CFF0-7B28-4E40-81FB-C619BD8705D3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7BC7E34C-66C4-493A-8EAA-3A5823A8BE8B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{55C89D9F-0125-44FF-871F-1314B8552DEC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8064BFB0-0B8C-46EB-9D59-28BF0D3E6B8A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12341,7 +12341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97C6417-8F55-4FD0-9088-8A4C8D863721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1565CF5D-AA55-4D6D-ACC8-6E2637279416}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13552,18 +13552,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7718E917-FEEC-4690-A041-267D8D53BE2D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8A56BF91-BC0B-4FF1-922D-ACEC873B220F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{15A76043-E852-4F9B-B974-E255959CFA3B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AC19A2D4-1AA6-4620-BF25-A9CE99F5DDBF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D2FE5AED-6243-4D43-83A7-9FBD37894EDA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{00B53ACF-F610-43DA-85EE-28A4AC44D6E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CA541330-20BA-4EF4-8DA1-9AF83067D053}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AF7AE67F-7692-4DC1-8845-EF71C8A06975}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{25D0CFCE-F184-495D-9C61-0C15176F06DD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{48C2DCDA-83C9-4989-A482-3294270A8971}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{61C30F02-BCEC-4ED5-95EF-371730C40963}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7BDE7E3F-03CE-4968-9DDC-3F100639582F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E9DF1E61-FDB8-48F8-ACC1-E1653BC79ED3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A520583A-F681-4439-829E-5A5E0389EB37}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F19863EC-D093-4B2E-8ED7-8FA875CEDC50}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FD0E02F9-54CA-4DA0-8CAC-0FB72946F326}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C4D1A228-02C9-4EA0-A0C5-8DBB688468AC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0D54F6C1-C314-4374-A44E-ABBB2C01BACD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A897C242-8908-4D87-BF72-1A2CA73B6301}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8F0C0BCE-6074-47A1-9048-08A9FA540549}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AE3DFA60-FC38-43C9-84B9-FADBFC0D6126}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{38078CDD-2463-460E-A783-CD7648AF5913}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{32BBDD21-68D6-4F76-873C-02377D4AC400}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C9051493-FB2F-4CF4-A683-5953C98BCBE9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13576,7 +13576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01CA2C4-C535-4242-9FE1-24EDA1F2A404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F820A162-1720-4BAB-A226-0C5B4033A122}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14787,18 +14787,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F7E1E7DF-D86F-49F2-BAAB-5DE9CF4C8B7E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5E7FE2FA-65D5-4A65-8007-7F05EEBF9DF6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B545781B-2B4A-4923-918B-B9721A5DCF6A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C0EA5913-5106-4044-8313-1B9E0B4AC7EB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{058243D8-DF3C-48C5-BFF6-3BCE3F62C66B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{90036F25-291A-47C0-AE5E-39A22616CA4B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CF721E99-CB52-4E7B-9054-D57C8052416F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{27BB45AF-36A9-41EB-9C50-42622B0171CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{764C164C-F019-4138-8C5C-9AFD9D2705F0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C3CB0375-5B7B-47DE-A9FA-594373649122}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0ABCFC01-7A59-45F3-9C5E-ECD72B258B16}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E62DBB4B-3C21-447F-A037-ED0B724CF807}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FBF67AE6-5FF1-44E1-985E-348D14D8B512}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6CBE18D4-D98A-494B-AECE-25CA8B7414A5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6FABF959-1F50-420F-980C-32391961F376}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{02CA918A-9733-4394-9930-2237769ED9A3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B01E22C4-0B5E-4813-B29B-E20F89B9A6B7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{22516F23-6F9E-418D-9D53-C38D7D2BC15D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5503E8C7-0011-4376-A49E-090564326CD4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5FBB6606-77CE-4FF3-BFA4-6B0241C5C83C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E40EB48D-8F9C-4517-A55C-84C9991F3349}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5FBC5F1B-2850-4316-A1F8-0353B56B23A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{34EDBB54-B387-4A5B-9A57-3685A7175601}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{519C1125-1D24-4595-AA8B-6B007BE679F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14811,7 +14811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6112053-F0B0-4D3B-94F4-9218446DCDF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BF6769-07BE-4EF7-9D5E-1B79B1C9FFE9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16022,18 +16022,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{401E64FB-F0AC-4777-9D79-A6F1905E99EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C131E4F3-F7ED-4996-A979-514615C4A3D4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7ED82F90-AF3F-4167-BB5C-2979E09D6894}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{63EE9644-57F7-4EC0-AE88-1D605FDAD45C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C90CADA4-59BA-4954-9FA0-DDEADA1D661A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{91044E08-797F-4EEF-8421-98F1DCE4B0FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{19E945EE-B514-40D8-9EE6-E8FD1A801D3F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9C7F890C-C807-4AE7-9B59-E831CF34F9F9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{76384A5E-93BE-4E09-BEA4-00CC291FF521}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{06849C3B-CD1E-4390-BD35-F3A37AFCFA50}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{78843F47-B263-4023-A058-D7F4DBD798C1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EA596F5C-48E7-484B-89B6-4E019491E073}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{42A89335-98BE-4924-9FAD-D2A109DFE40A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4C6B1598-EE71-4475-AC40-A9A960E9DADB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CB9B5563-632C-491F-A00D-03DE9A4E7303}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{66C693EC-18E2-4FE4-BD27-0892384CAA1C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9B7B7AF1-68A7-4B3F-9272-4684A9A21179}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4ACD4477-152E-4885-B47B-04AC55B90298}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{52418C37-9E7C-40A5-B1C4-9DB2A14EFB6F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6EE6112E-3A1F-4F81-8A94-18F8F607121E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9378065F-F8B3-428F-B997-10C641028ECB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6794945B-B961-4FB3-A4DE-476CDE4D2ED0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5EA1A89E-0AAA-4D21-AC0D-D2C4ADC6C807}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7F938E1A-4224-4BF7-9325-2BC3CA0AD7C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
